--- a/Week_7/measures.xlsx
+++ b/Week_7/measures.xlsx
@@ -864,4019 +864,4011 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="D477" sqref="D477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>15719</v>
       </c>
       <c r="B1" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>13793</v>
+        <v>9102</v>
       </c>
       <c r="B2" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>10580</v>
+        <v>9276</v>
       </c>
       <c r="B3" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>9913</v>
+        <v>8739</v>
       </c>
       <c r="B4" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>9673</v>
+        <v>9499</v>
       </c>
       <c r="B5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>12157</v>
+        <v>9210</v>
       </c>
       <c r="B6" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>8649</v>
+        <v>9750</v>
       </c>
       <c r="B7" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>10075</v>
+        <v>9316</v>
       </c>
       <c r="B8" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>11706</v>
+        <v>11730</v>
       </c>
       <c r="B9" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>11523</v>
+        <v>11399</v>
       </c>
       <c r="B10" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>16822</v>
+        <v>11910</v>
       </c>
       <c r="B11" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>12157</v>
+        <v>12392</v>
       </c>
       <c r="B12" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>12070</v>
+        <v>12224</v>
       </c>
       <c r="B13" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>13018</v>
+        <v>12906</v>
       </c>
       <c r="B14" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>16171</v>
+        <v>12982</v>
       </c>
       <c r="B15" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>16350</v>
+        <v>14747</v>
       </c>
       <c r="B16" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>16056</v>
+        <v>13957</v>
       </c>
       <c r="B17" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>18058</v>
+        <v>14454</v>
       </c>
       <c r="B18" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>15518</v>
+        <v>15119</v>
       </c>
       <c r="B19" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>15681</v>
+        <v>16416</v>
       </c>
       <c r="B20" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>16777</v>
+        <v>17823</v>
       </c>
       <c r="B21" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>19077</v>
+        <v>16544</v>
       </c>
       <c r="B22" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>18436</v>
+        <v>16421</v>
       </c>
       <c r="B23" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>17491</v>
+        <v>17368</v>
       </c>
       <c r="B24" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>17279</v>
+        <v>18009</v>
       </c>
       <c r="B25" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>18399</v>
+        <v>17334</v>
       </c>
       <c r="B26" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>18973</v>
+        <v>17195</v>
       </c>
       <c r="B27" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>18508</v>
+        <v>18737</v>
       </c>
       <c r="B28" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>18529</v>
+        <v>19501</v>
       </c>
       <c r="B29" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>18611</v>
+        <v>19530</v>
       </c>
       <c r="B30" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>19935</v>
+        <v>20316</v>
       </c>
       <c r="B31" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>19757</v>
+        <v>19772</v>
       </c>
       <c r="B32" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>20726</v>
+        <v>20856</v>
       </c>
       <c r="B33" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>20760</v>
+        <v>21114</v>
       </c>
       <c r="B34" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>20928</v>
+        <v>21183</v>
       </c>
       <c r="B35" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>21327</v>
+        <v>21405</v>
       </c>
       <c r="B36" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>23466</v>
+        <v>21632</v>
       </c>
       <c r="B37" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>25429</v>
+        <v>22708</v>
       </c>
       <c r="B38" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>24269</v>
+        <v>23769</v>
       </c>
       <c r="B39" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>27066</v>
+        <v>24047</v>
       </c>
       <c r="B40" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>28948</v>
+        <v>24406</v>
       </c>
       <c r="B41" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>32884</v>
+        <v>25967</v>
       </c>
       <c r="B42" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>31008</v>
+        <v>27911</v>
       </c>
       <c r="B43" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>29484</v>
+        <v>26405</v>
       </c>
       <c r="B44" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>31197</v>
+        <v>27545</v>
       </c>
       <c r="B45" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>32517</v>
+        <v>26709</v>
       </c>
       <c r="B46" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>30887</v>
+        <v>27350</v>
       </c>
       <c r="B47" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>33876</v>
+        <v>27997</v>
       </c>
       <c r="B48" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>29400</v>
+        <v>26442</v>
       </c>
       <c r="B49" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>28230</v>
+        <v>26596</v>
       </c>
       <c r="B50" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>30331</v>
+        <v>27504</v>
       </c>
       <c r="B51" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>36568</v>
+        <v>28404</v>
       </c>
       <c r="B52" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>32506</v>
+        <v>28810</v>
       </c>
       <c r="B53" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>32165</v>
+        <v>30975</v>
       </c>
       <c r="B54" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>35629</v>
+        <v>29523</v>
       </c>
       <c r="B55" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>30491</v>
+        <v>34546</v>
       </c>
       <c r="B56" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>31298</v>
+        <v>33504</v>
       </c>
       <c r="B57" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>31852</v>
+        <v>32534</v>
       </c>
       <c r="B58" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>31915</v>
+        <v>31012</v>
       </c>
       <c r="B59" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>33818</v>
+        <v>33722</v>
       </c>
       <c r="B60" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>32339</v>
+        <v>33680</v>
       </c>
       <c r="B61" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>33098</v>
+        <v>33339</v>
       </c>
       <c r="B62" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>34684</v>
+        <v>33382</v>
       </c>
       <c r="B63" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>34026</v>
+        <v>33356</v>
       </c>
       <c r="B64" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>36296</v>
+        <v>33515</v>
       </c>
       <c r="B65" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>35189</v>
+        <v>34011</v>
       </c>
       <c r="B66" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>35808</v>
+        <v>34636</v>
       </c>
       <c r="B67" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>36224</v>
+        <v>34797</v>
       </c>
       <c r="B68" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>38119</v>
+        <v>35452</v>
       </c>
       <c r="B69" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>39160</v>
+        <v>35368</v>
       </c>
       <c r="B70" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>38105</v>
+        <v>36546</v>
       </c>
       <c r="B71" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>38136</v>
+        <v>36960</v>
       </c>
       <c r="B72" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>40633</v>
+        <v>37173</v>
       </c>
       <c r="B73" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>46249</v>
+        <v>40272</v>
       </c>
       <c r="B74" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>38697</v>
+        <v>38749</v>
       </c>
       <c r="B75" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>39129</v>
+        <v>39448</v>
       </c>
       <c r="B76" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>40046</v>
+        <v>41731</v>
       </c>
       <c r="B77" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>40069</v>
+        <v>39865</v>
       </c>
       <c r="B78" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>40338</v>
+        <v>39038</v>
       </c>
       <c r="B79" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>40276</v>
+        <v>41777</v>
       </c>
       <c r="B80" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>42239</v>
+        <v>40685</v>
       </c>
       <c r="B81" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>41732</v>
+        <v>40610</v>
       </c>
       <c r="B82" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>45680</v>
+        <v>42500</v>
       </c>
       <c r="B83" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>46546</v>
+        <v>42769</v>
       </c>
       <c r="B84" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>43099</v>
+        <v>42733</v>
       </c>
       <c r="B85" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>43340</v>
+        <v>43383</v>
       </c>
       <c r="B86" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>44215</v>
+        <v>43700</v>
       </c>
       <c r="B87" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>43622</v>
+        <v>44454</v>
       </c>
       <c r="B88" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>45304</v>
+        <v>45209</v>
       </c>
       <c r="B89" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>44986</v>
+        <v>45148</v>
       </c>
       <c r="B90" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>45420</v>
+        <v>45023</v>
       </c>
       <c r="B91" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>47169</v>
+        <v>45995</v>
       </c>
       <c r="B92" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>48212</v>
+        <v>46071</v>
       </c>
       <c r="B93" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>48259</v>
+        <v>46473</v>
       </c>
       <c r="B94" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>48931</v>
+        <v>47402</v>
       </c>
       <c r="B95" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>51595</v>
+        <v>48433</v>
       </c>
       <c r="B96" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>48362</v>
+        <v>49391</v>
       </c>
       <c r="B97" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>49295</v>
+        <v>48398</v>
       </c>
       <c r="B98" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>49063</v>
+        <v>51646</v>
       </c>
       <c r="B99" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>50654</v>
+        <v>51929</v>
       </c>
       <c r="B100" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>49925</v>
+        <v>50391</v>
       </c>
       <c r="B101" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>50813</v>
+        <v>50964</v>
       </c>
       <c r="B102" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>51837</v>
+        <v>50608</v>
       </c>
       <c r="B103" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>51362</v>
+        <v>51091</v>
       </c>
       <c r="B104" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>55465</v>
+        <v>51891</v>
       </c>
       <c r="B105" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>53851</v>
+        <v>54062</v>
       </c>
       <c r="B106" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>52223</v>
+        <v>52991</v>
       </c>
       <c r="B107" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>53943</v>
+        <v>55610</v>
       </c>
       <c r="B108" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>54792</v>
+        <v>55103</v>
       </c>
       <c r="B109" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>54492</v>
+        <v>54870</v>
       </c>
       <c r="B110" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>54072</v>
+        <v>55942</v>
       </c>
       <c r="B111" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>54852</v>
+        <v>54754</v>
       </c>
       <c r="B112" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>55261</v>
+        <v>54696</v>
       </c>
       <c r="B113" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>57348</v>
+        <v>56340</v>
       </c>
       <c r="B114" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>58455</v>
+        <v>57207</v>
       </c>
       <c r="B115" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>57801</v>
+        <v>58794</v>
       </c>
       <c r="B116" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>57318</v>
+        <v>59820</v>
       </c>
       <c r="B117" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>58555</v>
+        <v>66897</v>
       </c>
       <c r="B118" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>58249</v>
+        <v>71256</v>
       </c>
       <c r="B119" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>60889</v>
+        <v>77803</v>
       </c>
       <c r="B120" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>60113</v>
+        <v>72043</v>
       </c>
       <c r="B121" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>59759</v>
+        <v>69518</v>
       </c>
       <c r="B122" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>63117</v>
+        <v>68811</v>
       </c>
       <c r="B123" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>61559</v>
+        <v>72421</v>
       </c>
       <c r="B124" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>60164</v>
+        <v>64658</v>
       </c>
       <c r="B125" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>59736</v>
+        <v>59352</v>
       </c>
       <c r="B126" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>65179</v>
+        <v>76948</v>
       </c>
       <c r="B127" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>63927</v>
+        <v>90818</v>
       </c>
       <c r="B128" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>63220</v>
+        <v>118007</v>
       </c>
       <c r="B129" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>63496</v>
+        <v>135904</v>
       </c>
       <c r="B130" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>66338</v>
+        <v>157695</v>
       </c>
       <c r="B131" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>67154</v>
+        <v>217138</v>
       </c>
       <c r="B132" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>63966</v>
+        <v>181976</v>
       </c>
       <c r="B133" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>67476</v>
+        <v>161153</v>
       </c>
       <c r="B134" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>69806</v>
+        <v>135372</v>
       </c>
       <c r="B135" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>67843</v>
+        <v>122147</v>
       </c>
       <c r="B136" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>67478</v>
+        <v>134564</v>
       </c>
       <c r="B137" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>67920</v>
+        <v>226036</v>
       </c>
       <c r="B138" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>73618</v>
+        <v>204481</v>
       </c>
       <c r="B139" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>75582</v>
+        <v>162550</v>
       </c>
       <c r="B140" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>72615</v>
+        <v>109700</v>
       </c>
       <c r="B141" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>72295</v>
+        <v>88951</v>
       </c>
       <c r="B142" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>67756</v>
+        <v>84127</v>
       </c>
       <c r="B143" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>70779</v>
+        <v>94901</v>
       </c>
       <c r="B144" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>69906</v>
+        <v>80170</v>
       </c>
       <c r="B145" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>70937</v>
+        <v>77879</v>
       </c>
       <c r="B146" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>75461</v>
+        <v>100589</v>
       </c>
       <c r="B147" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>73929</v>
+        <v>88645</v>
       </c>
       <c r="B148" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>70908</v>
+        <v>130693</v>
       </c>
       <c r="B149" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>72389</v>
+        <v>89949</v>
       </c>
       <c r="B150" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>74383</v>
+        <v>97410</v>
       </c>
       <c r="B151" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>73659</v>
+        <v>85746</v>
       </c>
       <c r="B152" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>72914</v>
+        <v>76532</v>
       </c>
       <c r="B153" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>76322</v>
+        <v>78048</v>
       </c>
       <c r="B154" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>79313</v>
+        <v>87540</v>
       </c>
       <c r="B155" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>75464</v>
+        <v>94062</v>
       </c>
       <c r="B156" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>73618</v>
+        <v>93083</v>
       </c>
       <c r="B157" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>75260</v>
+        <v>98398</v>
       </c>
       <c r="B158" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>75197</v>
+        <v>103429</v>
       </c>
       <c r="B159" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>77233</v>
+        <v>104055</v>
       </c>
       <c r="B160" s="1">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>79760</v>
+        <v>104210</v>
       </c>
       <c r="B161" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>78210</v>
+        <v>108217</v>
       </c>
       <c r="B162" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>75816</v>
+        <v>125088</v>
       </c>
       <c r="B163" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>78713</v>
+        <v>125765</v>
       </c>
       <c r="B164" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>77699</v>
+        <v>117365</v>
       </c>
       <c r="B165" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>79494</v>
+        <v>120378</v>
       </c>
       <c r="B166" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>81756</v>
+        <v>134307</v>
       </c>
       <c r="B167" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>83185</v>
+        <v>123464</v>
       </c>
       <c r="B168" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>95566</v>
+        <v>119287</v>
       </c>
       <c r="B169" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
-        <v>86455</v>
+        <v>119140</v>
       </c>
       <c r="B170" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
-        <v>83127</v>
+        <v>134871</v>
       </c>
       <c r="B171" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
-        <v>81984</v>
+        <v>153975</v>
       </c>
       <c r="B172" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1">
-        <v>82097</v>
+        <v>142446</v>
       </c>
       <c r="B173" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1">
-        <v>86918</v>
+        <v>129369</v>
       </c>
       <c r="B174" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1">
-        <v>86192</v>
+        <v>115360</v>
       </c>
       <c r="B175" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1">
-        <v>82701</v>
+        <v>114030</v>
       </c>
       <c r="B176" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
-        <v>86047</v>
+        <v>102356</v>
       </c>
       <c r="B177" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
-        <v>84202</v>
+        <v>99140</v>
       </c>
       <c r="B178" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
-        <v>89984</v>
+        <v>93298</v>
       </c>
       <c r="B179" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
-        <v>99689</v>
+        <v>133699</v>
       </c>
       <c r="B180" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
-        <v>118276</v>
+        <v>121347</v>
       </c>
       <c r="B181" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
-        <v>116789</v>
+        <v>130782</v>
       </c>
       <c r="B182" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
-        <v>109913</v>
+        <v>134355</v>
       </c>
       <c r="B183" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
-        <v>195993</v>
+        <v>125008</v>
       </c>
       <c r="B184" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
-        <v>174913</v>
+        <v>116458</v>
       </c>
       <c r="B185" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
-        <v>125974</v>
+        <v>106275</v>
       </c>
       <c r="B186" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
-        <v>136958</v>
+        <v>97956</v>
       </c>
       <c r="B187" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
-        <v>124216</v>
+        <v>95043</v>
       </c>
       <c r="B188" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
-        <v>114068</v>
+        <v>104219</v>
       </c>
       <c r="B189" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
-        <v>110364</v>
+        <v>103443</v>
       </c>
       <c r="B190" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
-        <v>101204</v>
+        <v>107000</v>
       </c>
       <c r="B191" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
-        <v>97050</v>
+        <v>109750</v>
       </c>
       <c r="B192" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>98106</v>
+        <v>101723</v>
       </c>
       <c r="B193" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>102048</v>
+        <v>101131</v>
       </c>
       <c r="B194" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>97832</v>
+        <v>99566</v>
       </c>
       <c r="B195" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>99367</v>
+        <v>101401</v>
       </c>
       <c r="B196" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>97354</v>
+        <v>111139</v>
       </c>
       <c r="B197" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>101789</v>
+        <v>128059</v>
       </c>
       <c r="B198" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>104698</v>
+        <v>104199</v>
       </c>
       <c r="B199" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>105167</v>
+        <v>115743</v>
       </c>
       <c r="B200" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>104628</v>
+        <v>112595</v>
       </c>
       <c r="B201" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>119680</v>
+        <v>105665</v>
       </c>
       <c r="B202" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>112727</v>
+        <v>105169</v>
       </c>
       <c r="B203" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>112897</v>
+        <v>122095</v>
       </c>
       <c r="B204" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>101658</v>
+        <v>242002</v>
       </c>
       <c r="B205" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>101875</v>
+        <v>335915</v>
       </c>
       <c r="B206" s="1">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>103100</v>
+        <v>157276</v>
       </c>
       <c r="B207" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>104247</v>
+        <v>154926</v>
       </c>
       <c r="B208" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>135220</v>
+        <v>178580</v>
       </c>
       <c r="B209" s="1">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>221447</v>
+        <v>162661</v>
       </c>
       <c r="B210" s="1">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>303537</v>
+        <v>176402</v>
       </c>
       <c r="B211" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>355487</v>
+        <v>186729</v>
       </c>
       <c r="B212" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>170161</v>
+        <v>179100</v>
       </c>
       <c r="B213" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>125338</v>
+        <v>160197</v>
       </c>
       <c r="B214" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>122547</v>
+        <v>140032</v>
       </c>
       <c r="B215" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>117829</v>
+        <v>125623</v>
       </c>
       <c r="B216" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>106398</v>
+        <v>128453</v>
       </c>
       <c r="B217" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>117009</v>
+        <v>120349</v>
       </c>
       <c r="B218" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>130945</v>
+        <v>114529</v>
       </c>
       <c r="B219" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>135571</v>
+        <v>120695</v>
       </c>
       <c r="B220" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>121559</v>
+        <v>138451</v>
       </c>
       <c r="B221" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>136882</v>
+        <v>122168</v>
       </c>
       <c r="B222" s="1">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>112362</v>
+        <v>115794</v>
       </c>
       <c r="B223" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>144795</v>
+        <v>121168</v>
       </c>
       <c r="B224" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>138947</v>
+        <v>122719</v>
       </c>
       <c r="B225" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>176765</v>
+        <v>122329</v>
       </c>
       <c r="B226" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>116577</v>
+        <v>154732</v>
       </c>
       <c r="B227" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>112277</v>
+        <v>178686</v>
       </c>
       <c r="B228" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>117626</v>
+        <v>173954</v>
       </c>
       <c r="B229" s="1">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>113692</v>
+        <v>175082</v>
       </c>
       <c r="B230" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>108186</v>
+        <v>196938</v>
       </c>
       <c r="B231" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>114274</v>
+        <v>194365</v>
       </c>
       <c r="B232" s="1">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>113202</v>
+        <v>203885</v>
       </c>
       <c r="B233" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>114820</v>
+        <v>184282</v>
       </c>
       <c r="B234" s="1">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>188533</v>
+        <v>196241</v>
       </c>
       <c r="B235" s="1">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>157916</v>
+        <v>187324</v>
       </c>
       <c r="B236" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>146913</v>
+        <v>180125</v>
       </c>
       <c r="B237" s="1">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>188267</v>
+        <v>174244</v>
       </c>
       <c r="B238" s="1">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>138897</v>
+        <v>142494</v>
       </c>
       <c r="B239" s="1">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>131213</v>
+        <v>125511</v>
       </c>
       <c r="B240" s="1">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>182123</v>
+        <v>123837</v>
       </c>
       <c r="B241" s="1">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>162245</v>
+        <v>130950</v>
       </c>
       <c r="B242" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>187363</v>
+        <v>146231</v>
       </c>
       <c r="B243" s="1">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>163984</v>
+        <v>132377</v>
       </c>
       <c r="B244" s="1">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>139981</v>
+        <v>131096</v>
       </c>
       <c r="B245" s="1">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>123048</v>
+        <v>167024</v>
       </c>
       <c r="B246" s="1">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>140450</v>
+        <v>149979</v>
       </c>
       <c r="B247" s="1">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>132050</v>
+        <v>178055</v>
       </c>
       <c r="B248" s="1">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>255453</v>
+        <v>194522</v>
       </c>
       <c r="B249" s="1">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>262021</v>
+        <v>199439</v>
       </c>
       <c r="B250" s="1">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>139709</v>
+        <v>181434</v>
       </c>
       <c r="B251" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>172736</v>
+        <v>154324</v>
       </c>
       <c r="B252" s="1">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>130147</v>
+        <v>135738</v>
       </c>
       <c r="B253" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>128800</v>
+        <v>190673</v>
       </c>
       <c r="B254" s="1">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>132681</v>
+        <v>175689</v>
       </c>
       <c r="B255" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>139933</v>
+        <v>174287</v>
       </c>
       <c r="B256" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>130173</v>
+        <v>179040</v>
       </c>
       <c r="B257" s="1">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>131665</v>
+        <v>153880</v>
       </c>
       <c r="B258" s="1">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>132541</v>
+        <v>157390</v>
       </c>
       <c r="B259" s="1">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>131023</v>
+        <v>157204</v>
       </c>
       <c r="B260" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>131668</v>
+        <v>157570</v>
       </c>
       <c r="B261" s="1">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>128333</v>
+        <v>144793</v>
       </c>
       <c r="B262" s="1">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>134420</v>
+        <v>154017</v>
       </c>
       <c r="B263" s="1">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>147066</v>
+        <v>163340</v>
       </c>
       <c r="B264" s="1">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>133854</v>
+        <v>171743</v>
       </c>
       <c r="B265" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>133593</v>
+        <v>182328</v>
       </c>
       <c r="B266" s="1">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>140560</v>
+        <v>209983</v>
       </c>
       <c r="B267" s="1">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>167422</v>
+        <v>216061</v>
       </c>
       <c r="B268" s="1">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>151729</v>
+        <v>232614</v>
       </c>
       <c r="B269" s="1">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>144366</v>
+        <v>221244</v>
       </c>
       <c r="B270" s="1">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>144391</v>
+        <v>261297</v>
       </c>
       <c r="B271" s="1">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>134860</v>
+        <v>240223</v>
       </c>
       <c r="B272" s="1">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>141293</v>
+        <v>238809</v>
       </c>
       <c r="B273" s="1">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>153824</v>
+        <v>245214</v>
       </c>
       <c r="B274" s="1">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>141249</v>
+        <v>248780</v>
       </c>
       <c r="B275" s="1">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>155745</v>
+        <v>249095</v>
       </c>
       <c r="B276" s="1">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>152850</v>
+        <v>243008</v>
       </c>
       <c r="B277" s="1">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>169824</v>
+        <v>251787</v>
       </c>
       <c r="B278" s="1">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>157679</v>
+        <v>252417</v>
       </c>
       <c r="B279" s="1">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>149676</v>
+        <v>256254</v>
       </c>
       <c r="B280" s="1">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>152542</v>
+        <v>246306</v>
       </c>
       <c r="B281" s="1">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>142382</v>
+        <v>241129</v>
       </c>
       <c r="B282" s="1">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>156297</v>
+        <v>246217</v>
       </c>
       <c r="B283" s="1">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>153799</v>
+        <v>224378</v>
       </c>
       <c r="B284" s="1">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>165021</v>
+        <v>182855</v>
       </c>
       <c r="B285" s="1">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>146429</v>
+        <v>163890</v>
       </c>
       <c r="B286" s="1">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>151284</v>
+        <v>162986</v>
       </c>
       <c r="B287" s="1">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>155751</v>
+        <v>152773</v>
       </c>
       <c r="B288" s="1">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>157393</v>
+        <v>156084</v>
       </c>
       <c r="B289" s="1">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>156196</v>
+        <v>152310</v>
       </c>
       <c r="B290" s="1">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>163260</v>
+        <v>161969</v>
       </c>
       <c r="B291" s="1">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>161709</v>
+        <v>175054</v>
       </c>
       <c r="B292" s="1">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>165194</v>
+        <v>206713</v>
       </c>
       <c r="B293" s="1">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>160547</v>
+        <v>206215</v>
       </c>
       <c r="B294" s="1">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>177879</v>
+        <v>215597</v>
       </c>
       <c r="B295" s="1">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>164021</v>
+        <v>206059</v>
       </c>
       <c r="B296" s="1">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>157528</v>
+        <v>194455</v>
       </c>
       <c r="B297" s="1">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>150720</v>
+        <v>337659</v>
       </c>
       <c r="B298" s="1">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>161003</v>
+        <v>313809</v>
       </c>
       <c r="B299" s="1">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>170484</v>
+        <v>226519</v>
       </c>
       <c r="B300" s="1">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>153044</v>
+        <v>191423</v>
       </c>
       <c r="B301" s="1">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>187883</v>
+        <v>190634</v>
       </c>
       <c r="B302" s="1">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>149273</v>
+        <v>202069</v>
       </c>
       <c r="B303" s="1">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>159233</v>
+        <v>188578</v>
       </c>
       <c r="B304" s="1">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>169357</v>
+        <v>176958</v>
       </c>
       <c r="B305" s="1">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>160057</v>
+        <v>172159</v>
       </c>
       <c r="B306" s="1">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>161206</v>
+        <v>174406</v>
       </c>
       <c r="B307" s="1">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>172509</v>
+        <v>187389</v>
       </c>
       <c r="B308" s="1">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>171020</v>
+        <v>184312</v>
       </c>
       <c r="B309" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>167667</v>
+        <v>184840</v>
       </c>
       <c r="B310" s="1">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>163213</v>
+        <v>187182</v>
       </c>
       <c r="B311" s="1">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>166233</v>
+        <v>188953</v>
       </c>
       <c r="B312" s="1">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>163414</v>
+        <v>190105</v>
       </c>
       <c r="B313" s="1">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>180897</v>
+        <v>185390</v>
       </c>
       <c r="B314" s="1">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>170740</v>
+        <v>174309</v>
       </c>
       <c r="B315" s="1">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>159458</v>
+        <v>169548</v>
       </c>
       <c r="B316" s="1">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>179228</v>
+        <v>183346</v>
       </c>
       <c r="B317" s="1">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>165819</v>
+        <v>180542</v>
       </c>
       <c r="B318" s="1">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>173520</v>
+        <v>177379</v>
       </c>
       <c r="B319" s="1">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>176241</v>
+        <v>205931</v>
       </c>
       <c r="B320" s="1">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>175223</v>
+        <v>180742</v>
       </c>
       <c r="B321" s="1">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>162959</v>
+        <v>183131</v>
       </c>
       <c r="B322" s="1">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>172530</v>
+        <v>189258</v>
       </c>
       <c r="B323" s="1">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>176433</v>
+        <v>186926</v>
       </c>
       <c r="B324" s="1">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>166105</v>
+        <v>184079</v>
       </c>
       <c r="B325" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>165966</v>
+        <v>196145</v>
       </c>
       <c r="B326" s="1">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>176109</v>
+        <v>190669</v>
       </c>
       <c r="B327" s="1">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>166038</v>
+        <v>202562</v>
       </c>
       <c r="B328" s="1">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>174488</v>
+        <v>245365</v>
       </c>
       <c r="B329" s="1">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>165681</v>
+        <v>195073</v>
       </c>
       <c r="B330" s="1">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>169407</v>
+        <v>198997</v>
       </c>
       <c r="B331" s="1">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>172099</v>
+        <v>193402</v>
       </c>
       <c r="B332" s="1">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>195515</v>
+        <v>191126</v>
       </c>
       <c r="B333" s="1">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>165638</v>
+        <v>195562</v>
       </c>
       <c r="B334" s="1">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>171447</v>
+        <v>195088</v>
       </c>
       <c r="B335" s="1">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>172249</v>
+        <v>195403</v>
       </c>
       <c r="B336" s="1">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>187016</v>
+        <v>196397</v>
       </c>
       <c r="B337" s="1">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>190599</v>
+        <v>206464</v>
       </c>
       <c r="B338" s="1">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>170781</v>
+        <v>255497</v>
       </c>
       <c r="B339" s="1">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>178455</v>
+        <v>224645</v>
       </c>
       <c r="B340" s="1">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>178978</v>
+        <v>208819</v>
       </c>
       <c r="B341" s="1">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>174868</v>
+        <v>210352</v>
       </c>
       <c r="B342" s="1">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>180297</v>
+        <v>223342</v>
       </c>
       <c r="B343" s="1">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>178941</v>
+        <v>200273</v>
       </c>
       <c r="B344" s="1">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>169402</v>
+        <v>206803</v>
       </c>
       <c r="B345" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>186821</v>
+        <v>228021</v>
       </c>
       <c r="B346" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>175812</v>
+        <v>218547</v>
       </c>
       <c r="B347" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>177742</v>
+        <v>231653</v>
       </c>
       <c r="B348" s="1">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>176823</v>
+        <v>211452</v>
       </c>
       <c r="B349" s="1">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>181558</v>
+        <v>216080</v>
       </c>
       <c r="B350" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>194709</v>
+        <v>227892</v>
       </c>
       <c r="B351" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>171033</v>
+        <v>277246</v>
       </c>
       <c r="B352" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>191120</v>
+        <v>258930</v>
       </c>
       <c r="B353" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>187986</v>
+        <v>207447</v>
       </c>
       <c r="B354" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>173228</v>
+        <v>205473</v>
       </c>
       <c r="B355" s="1">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>188071</v>
+        <v>224728</v>
       </c>
       <c r="B356" s="1">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>171558</v>
+        <v>207245</v>
       </c>
       <c r="B357" s="1">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>189493</v>
+        <v>213312</v>
       </c>
       <c r="B358" s="1">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>191815</v>
+        <v>207491</v>
       </c>
       <c r="B359" s="1">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>172558</v>
+        <v>208149</v>
       </c>
       <c r="B360" s="1">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>183875</v>
+        <v>228162</v>
       </c>
       <c r="B361" s="1">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>184614</v>
+        <v>230223</v>
       </c>
       <c r="B362" s="1">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>199810</v>
+        <v>225943</v>
       </c>
       <c r="B363" s="1">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>190889</v>
+        <v>222290</v>
       </c>
       <c r="B364" s="1">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>183000</v>
+        <v>218463</v>
       </c>
       <c r="B365" s="1">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>195909</v>
+        <v>236852</v>
       </c>
       <c r="B366" s="1">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>193491</v>
+        <v>209734</v>
       </c>
       <c r="B367" s="1">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>182502</v>
+        <v>215953</v>
       </c>
       <c r="B368" s="1">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>188148</v>
+        <v>216324</v>
       </c>
       <c r="B369" s="1">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>183711</v>
+        <v>227109</v>
       </c>
       <c r="B370" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>200103</v>
+        <v>223670</v>
       </c>
       <c r="B371" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>192547</v>
+        <v>246789</v>
       </c>
       <c r="B372" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>185178</v>
+        <v>262327</v>
       </c>
       <c r="B373" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>183207</v>
+        <v>280707</v>
       </c>
       <c r="B374" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>202740</v>
+        <v>261760</v>
       </c>
       <c r="B375" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>246502</v>
+        <v>228329</v>
       </c>
       <c r="B376" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>334718</v>
+        <v>228938</v>
       </c>
       <c r="B377" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>241120</v>
+        <v>236147</v>
       </c>
       <c r="B378" s="1">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>197501</v>
+        <v>233299</v>
       </c>
       <c r="B379" s="1">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>205657</v>
+        <v>237454</v>
       </c>
       <c r="B380" s="1">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>200043</v>
+        <v>247251</v>
       </c>
       <c r="B381" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>188119</v>
+        <v>224566</v>
       </c>
       <c r="B382" s="1">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>203205</v>
+        <v>237393</v>
       </c>
       <c r="B383" s="1">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>195861</v>
+        <v>236405</v>
       </c>
       <c r="B384" s="1">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>194827</v>
+        <v>227019</v>
       </c>
       <c r="B385" s="1">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>199584</v>
+        <v>232059</v>
       </c>
       <c r="B386" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>198152</v>
+        <v>234320</v>
       </c>
       <c r="B387" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>188733</v>
+        <v>233558</v>
       </c>
       <c r="B388" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>195284</v>
+        <v>259996</v>
       </c>
       <c r="B389" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>219081</v>
+        <v>224168</v>
       </c>
       <c r="B390" s="1">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>190181</v>
+        <v>252474</v>
       </c>
       <c r="B391" s="1">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>208712</v>
+        <v>252182</v>
       </c>
       <c r="B392" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>210491</v>
+        <v>251794</v>
       </c>
       <c r="B393" s="1">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>192342</v>
+        <v>238793</v>
       </c>
       <c r="B394" s="1">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>205332</v>
+        <v>253822</v>
       </c>
       <c r="B395" s="1">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>215621</v>
+        <v>259283</v>
       </c>
       <c r="B396" s="1">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>193591</v>
+        <v>253426</v>
       </c>
       <c r="B397" s="1">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>218546</v>
+        <v>245950</v>
       </c>
       <c r="B398" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>201302</v>
+        <v>262929</v>
       </c>
       <c r="B399" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>198516</v>
+        <v>263445</v>
       </c>
       <c r="B400" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>200291</v>
+        <v>250510</v>
       </c>
       <c r="B401" s="1">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>230805</v>
+        <v>242904</v>
       </c>
       <c r="B402" s="1">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>207782</v>
+        <v>250775</v>
       </c>
       <c r="B403" s="1">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>199117</v>
+        <v>247806</v>
       </c>
       <c r="B404" s="1">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>209068</v>
+        <v>247708</v>
       </c>
       <c r="B405" s="1">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>213656</v>
+        <v>244436</v>
       </c>
       <c r="B406" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>204668</v>
+        <v>256517</v>
       </c>
       <c r="B407" s="1">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>214151</v>
+        <v>242644</v>
       </c>
       <c r="B408" s="1">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>217940</v>
+        <v>257690</v>
       </c>
       <c r="B409" s="1">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>228097</v>
+        <v>238996</v>
       </c>
       <c r="B410" s="1">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
-        <v>203414</v>
+        <v>265859</v>
       </c>
       <c r="B411" s="1">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1">
-        <v>220556</v>
+        <v>304037</v>
       </c>
       <c r="B412" s="1">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1">
-        <v>212741</v>
+        <v>289551</v>
       </c>
       <c r="B413" s="1">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1">
-        <v>200640</v>
+        <v>351405</v>
       </c>
       <c r="B414" s="1">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="1">
-        <v>226004</v>
+        <v>285657</v>
       </c>
       <c r="B415" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="1">
-        <v>214987</v>
+        <v>281032</v>
       </c>
       <c r="B416" s="1">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="1">
-        <v>213815</v>
+        <v>608039</v>
       </c>
       <c r="B417" s="1">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="1">
-        <v>208944</v>
+        <v>329465</v>
       </c>
       <c r="B418" s="1">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="1">
-        <v>233378</v>
+        <v>428340</v>
       </c>
       <c r="B419" s="1">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="1">
-        <v>223528</v>
+        <v>307585</v>
       </c>
       <c r="B420" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="1">
-        <v>227815</v>
+        <v>272469</v>
       </c>
       <c r="B421" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="1">
-        <v>205855</v>
+        <v>653262</v>
       </c>
       <c r="B422" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="1">
-        <v>224268</v>
+        <v>354678</v>
       </c>
       <c r="B423" s="1">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="1">
-        <v>226035</v>
+        <v>267159</v>
       </c>
       <c r="B424" s="1">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="1">
-        <v>225959</v>
+        <v>270794</v>
       </c>
       <c r="B425" s="1">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="1">
-        <v>211223</v>
+        <v>267264</v>
       </c>
       <c r="B426" s="1">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="1">
-        <v>213383</v>
+        <v>261394</v>
       </c>
       <c r="B427" s="1">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="1">
-        <v>231233</v>
+        <v>259190</v>
       </c>
       <c r="B428" s="1">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="1">
-        <v>214206</v>
+        <v>263052</v>
       </c>
       <c r="B429" s="1">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="1">
-        <v>212381</v>
+        <v>316546</v>
       </c>
       <c r="B430" s="1">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="1">
-        <v>231349</v>
+        <v>281299</v>
       </c>
       <c r="B431" s="1">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="1">
-        <v>227347</v>
+        <v>297117</v>
       </c>
       <c r="B432" s="1">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="1">
-        <v>235781</v>
+        <v>333610</v>
       </c>
       <c r="B433" s="1">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="1">
-        <v>213968</v>
+        <v>356567</v>
       </c>
       <c r="B434" s="1">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="1">
-        <v>227541</v>
+        <v>318915</v>
       </c>
       <c r="B435" s="1">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="1">
-        <v>236862</v>
+        <v>269128</v>
       </c>
       <c r="B436" s="1">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="1">
-        <v>222874</v>
+        <v>461151</v>
       </c>
       <c r="B437" s="1">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="1">
-        <v>225670</v>
+        <v>269342</v>
       </c>
       <c r="B438" s="1">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="1">
-        <v>235791</v>
+        <v>429581</v>
       </c>
       <c r="B439" s="1">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="1">
-        <v>232958</v>
+        <v>446514</v>
       </c>
       <c r="B440" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="1">
-        <v>233954</v>
+        <v>306014</v>
       </c>
       <c r="B441" s="1">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="1">
-        <v>215827</v>
+        <v>268583</v>
       </c>
       <c r="B442" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="1">
-        <v>224340</v>
+        <v>276376</v>
       </c>
       <c r="B443" s="1">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="1">
-        <v>237439</v>
+        <v>285753</v>
       </c>
       <c r="B444" s="1">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="1">
-        <v>226695</v>
+        <v>286758</v>
       </c>
       <c r="B445" s="1">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="1">
-        <v>225211</v>
+        <v>276341</v>
       </c>
       <c r="B446" s="1">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="1">
-        <v>267224</v>
+        <v>340107</v>
       </c>
       <c r="B447" s="1">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="1">
-        <v>228918</v>
+        <v>344858</v>
       </c>
       <c r="B448" s="1">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="1">
-        <v>248143</v>
+        <v>375009</v>
       </c>
       <c r="B449" s="1">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="1">
-        <v>226041</v>
+        <v>366549</v>
       </c>
       <c r="B450" s="1">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="1">
-        <v>229409</v>
+        <v>362645</v>
       </c>
       <c r="B451" s="1">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="1">
-        <v>238322</v>
+        <v>293421</v>
       </c>
       <c r="B452" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="1">
-        <v>227199</v>
+        <v>287961</v>
       </c>
       <c r="B453" s="1">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="1">
-        <v>256121</v>
+        <v>309203</v>
       </c>
       <c r="B454" s="1">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="1">
-        <v>226845</v>
+        <v>304172</v>
       </c>
       <c r="B455" s="1">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="1">
-        <v>237537</v>
+        <v>282958</v>
       </c>
       <c r="B456" s="1">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="1">
-        <v>246883</v>
+        <v>282046</v>
       </c>
       <c r="B457" s="1">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="1">
-        <v>239370</v>
+        <v>283098</v>
       </c>
       <c r="B458" s="1">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="1">
-        <v>295225</v>
+        <v>280258</v>
       </c>
       <c r="B459" s="1">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="1">
-        <v>235918</v>
+        <v>286649</v>
       </c>
       <c r="B460" s="1">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="1">
-        <v>232387</v>
+        <v>300147</v>
       </c>
       <c r="B461" s="1">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="1">
-        <v>244399</v>
+        <v>304667</v>
       </c>
       <c r="B462" s="1">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="1">
-        <v>239869</v>
+        <v>283261</v>
       </c>
       <c r="B463" s="1">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="1">
-        <v>251360</v>
+        <v>288813</v>
       </c>
       <c r="B464" s="1">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="1">
-        <v>251007</v>
+        <v>302753</v>
       </c>
       <c r="B465" s="1">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="1">
-        <v>246115</v>
+        <v>288542</v>
       </c>
       <c r="B466" s="1">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="1">
-        <v>228220</v>
+        <v>297047</v>
       </c>
       <c r="B467" s="1">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="1">
-        <v>264249</v>
+        <v>309427</v>
       </c>
       <c r="B468" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="1">
-        <v>245664</v>
+        <v>297604</v>
       </c>
       <c r="B469" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="1">
-        <v>270198</v>
+        <v>295493</v>
       </c>
       <c r="B470" s="1">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="1">
-        <v>257065</v>
+        <v>292460</v>
       </c>
       <c r="B471" s="1">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="1">
-        <v>251345</v>
+        <v>297260</v>
       </c>
       <c r="B472" s="1">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="1">
-        <v>240795</v>
+        <v>298485</v>
       </c>
       <c r="B473" s="1">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="1">
-        <v>253908</v>
+        <v>307676</v>
       </c>
       <c r="B474" s="1">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="1">
-        <v>253342</v>
+        <v>337053</v>
       </c>
       <c r="B475" s="1">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="1">
-        <v>243322</v>
+        <v>311361</v>
       </c>
       <c r="B476" s="1">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="1">
-        <v>257682</v>
+        <v>300353</v>
       </c>
       <c r="B477" s="1">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="1">
-        <v>257502</v>
+        <v>306221</v>
       </c>
       <c r="B478" s="1">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="1">
-        <v>252754</v>
+        <v>360111</v>
       </c>
       <c r="B479" s="1">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="1">
-        <v>240733</v>
+        <v>319486</v>
       </c>
       <c r="B480" s="1">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="1">
-        <v>243492</v>
+        <v>412303</v>
       </c>
       <c r="B481" s="1">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="1">
-        <v>255912</v>
+        <v>377687</v>
       </c>
       <c r="B482" s="1">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="1">
-        <v>260053</v>
+        <v>321160</v>
       </c>
       <c r="B483" s="1">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="1">
-        <v>255023</v>
+        <v>299317</v>
       </c>
       <c r="B484" s="1">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="1">
-        <v>244993</v>
+        <v>322363</v>
       </c>
       <c r="B485" s="1">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="1">
-        <v>256040</v>
+        <v>360750</v>
       </c>
       <c r="B486" s="1">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="1">
-        <v>253393</v>
+        <v>329629</v>
       </c>
       <c r="B487" s="1">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="1">
-        <v>263627</v>
+        <v>345491</v>
       </c>
       <c r="B488" s="1">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="1">
-        <v>268707</v>
+        <v>322706</v>
       </c>
       <c r="B489" s="1">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="1">
-        <v>263010</v>
+        <v>324821</v>
       </c>
       <c r="B490" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="1">
-        <v>280854</v>
+        <v>335336</v>
       </c>
       <c r="B491" s="1">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="1">
-        <v>269555</v>
+        <v>315313</v>
       </c>
       <c r="B492" s="1">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="1">
-        <v>265228</v>
+        <v>396616</v>
       </c>
       <c r="B493" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="1">
-        <v>269199</v>
+        <v>348278</v>
       </c>
       <c r="B494" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="1">
-        <v>254544</v>
+        <v>321739</v>
       </c>
       <c r="B495" s="1">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="1">
-        <v>262103</v>
+        <v>376858</v>
       </c>
       <c r="B496" s="1">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="1">
-        <v>262312</v>
+        <v>357627</v>
       </c>
       <c r="B497" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="1">
-        <v>268877</v>
+        <v>377769</v>
       </c>
       <c r="B498" s="1">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="1">
-        <v>272845</v>
+        <v>350466</v>
       </c>
       <c r="B499" s="1">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="1">
-        <v>279691</v>
+        <v>318079</v>
       </c>
       <c r="B500" s="1">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2">
-      <c r="A501" s="1">
-        <v>273653</v>
-      </c>
-      <c r="B501" s="1">
         <v>515</v>
       </c>
     </row>
